--- a/MainTop/тест 01.02.2025 Таня ВБ/p6.xlsx
+++ b/MainTop/тест 01.02.2025 Таня ВБ/p6.xlsx
@@ -356,10 +356,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1048576"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -454,30 +454,6 @@
         <v>-4.8</v>
       </c>
     </row>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
